--- a/Test_cases/Test_case_2.xlsx
+++ b/Test_cases/Test_case_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nils de Krom\Documents\GitHub\Operations_optimization_assignment\Test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29754071-1169-4358-9429-9DB43CFD2D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3200EAC2-FA62-4493-8AB3-6E887CC20AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Demand Table" sheetId="4" r:id="rId1"/>
@@ -247,8 +247,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="175" formatCode="0.0000000000000000"/>
+    <numFmt numFmtId="177" formatCode="0.0000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -633,7 +635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -736,22 +738,25 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -969,7 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -990,13 +995,13 @@
         <v>58</v>
       </c>
       <c r="C1" s="34"/>
-      <c r="D1" s="74" t="s">
+      <c r="D1" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="72" t="s">
         <v>67</v>
       </c>
       <c r="G1" s="9"/>
@@ -1005,7 +1010,7 @@
       <c r="J1" s="9"/>
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
-      <c r="M1" s="72" t="s">
+      <c r="M1" s="82" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1019,13 +1024,13 @@
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
-      <c r="M2" s="73"/>
+      <c r="M2" s="83"/>
     </row>
     <row r="3" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="72" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="18" t="s">
@@ -1358,10 +1363,10 @@
     </row>
     <row r="19" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="73"/>
+      <c r="C19" s="83"/>
       <c r="D19" s="14">
         <f>SUM(D10:D18)</f>
         <v>9467.8750664956679</v>
@@ -2433,7 +2438,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2468,14 +2473,14 @@
       <c r="A2" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="75">
+      <c r="B2" s="73">
         <v>0</v>
       </c>
-      <c r="C2" s="76">
+      <c r="C2" s="74">
         <f>SQRT((100-40)^2 + (30-29)^2)</f>
         <v>60.00833275470999</v>
       </c>
-      <c r="D2" s="77">
+      <c r="D2" s="75">
         <f>SQRT((100-70)^2 + (36-29)^2)</f>
         <v>30.805843601498726</v>
       </c>
@@ -2490,14 +2495,14 @@
       <c r="A3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="78">
+      <c r="B3" s="76">
         <f>SQRT((100-40)^2 + (30-29)^2)</f>
         <v>60.00833275470999</v>
       </c>
-      <c r="C3" s="79">
+      <c r="C3" s="77">
         <v>0</v>
       </c>
-      <c r="D3" s="80">
+      <c r="D3" s="78">
         <f>SQRT((40-70)^2 + (36-30)^2)</f>
         <v>30.594117081556711</v>
       </c>
@@ -2512,15 +2517,15 @@
       <c r="A4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="81">
+      <c r="B4" s="79">
         <f>SQRT((100-70)^2 + (36-29)^2)</f>
         <v>30.805843601498726</v>
       </c>
-      <c r="C4" s="82">
-        <f>SQRT((100-70)^2 + (36-29)^2)</f>
-        <v>30.805843601498726</v>
-      </c>
-      <c r="D4" s="83">
+      <c r="C4" s="80">
+        <f>SQRT((40-70)^2 + (36-30)^2)</f>
+        <v>30.594117081556711</v>
+      </c>
+      <c r="D4" s="81">
         <v>0</v>
       </c>
       <c r="E4" s="36"/>
@@ -3662,8 +3667,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3714,15 +3719,15 @@
         <v>15649</v>
       </c>
       <c r="D2" s="51">
-        <f t="shared" ref="D2:D12" si="0">C2/1000</f>
+        <f t="shared" ref="D2:D4" si="0">C2/1000</f>
         <v>15.648999999999999</v>
       </c>
-      <c r="E2" s="51">
+      <c r="E2" s="84">
         <f>D2*$B$16</f>
         <v>51.954679999999996</v>
       </c>
       <c r="F2" s="51">
-        <f t="shared" ref="F2:F12" si="1">D2*$B$21</f>
+        <f t="shared" ref="F2" si="1">D2*$B$21</f>
         <v>24.72542</v>
       </c>
       <c r="G2" s="51">
@@ -3779,7 +3784,7 @@
         <f t="shared" si="0"/>
         <v>27.442</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="85">
         <f>25*$B$16+(D4-25)*$B$17</f>
         <v>92.890100000000004</v>
       </c>
@@ -3788,11 +3793,11 @@
         <v>43.358360000000005</v>
       </c>
       <c r="G4" s="51">
-        <f t="shared" ref="G4:G12" si="4">B4*$B$31</f>
+        <f t="shared" ref="G4" si="4">B4*$B$31</f>
         <v>728.6400000000001</v>
       </c>
       <c r="H4" s="51">
-        <f t="shared" ref="H4:H12" si="5">$B$31</f>
+        <f t="shared" ref="H4:H7" si="5">$B$31</f>
         <v>9.1080000000000005</v>
       </c>
     </row>
@@ -4051,12 +4056,13 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.69921875" customWidth="1"/>
+    <col min="13" max="13" width="38.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4141,7 +4147,7 @@
       <c r="L2" s="48">
         <v>20</v>
       </c>
-      <c r="M2" s="56">
+      <c r="M2" s="86">
         <f>G2*D12</f>
         <v>2.4071413664888377E-2</v>
       </c>
@@ -4233,7 +4239,7 @@
       <c r="L4" s="48">
         <v>20</v>
       </c>
-      <c r="M4" s="56">
+      <c r="M4" s="86">
         <f>G4*$D$12</f>
         <v>1.5919410391566267E-2</v>
       </c>
